--- a/PIS/media/prak9.xlsx
+++ b/PIS/media/prak9.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3BE3DA\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3BE3DA\studies\PIS\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16393585-FB62-47DA-ABC3-FF0D9501B296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB98CA0A-7135-454A-A0D4-72693635226B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -70,19 +69,19 @@
     <t>Mx</t>
   </si>
   <si>
-    <t>ячеек</t>
-  </si>
-  <si>
     <t>Sigm</t>
-  </si>
-  <si>
-    <t>ячеек^2</t>
   </si>
   <si>
     <t>CKO</t>
   </si>
   <si>
     <t>Hx</t>
+  </si>
+  <si>
+    <t>сертификатов</t>
+  </si>
+  <si>
+    <t>сертификатов^2</t>
   </si>
 </sst>
 </file>
@@ -466,7 +465,7 @@
   <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,7 +508,7 @@
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <f ca="1">RANDBETWEEN(10,1000)</f>
-        <v>212</v>
+        <v>287</v>
       </c>
       <c r="B2" s="1">
         <v>23</v>
@@ -529,30 +528,30 @@
         <v>6</v>
       </c>
       <c r="G2">
-        <f>F2/100</f>
+        <f t="shared" ref="G2:G11" si="0">F2/100</f>
         <v>0.06</v>
       </c>
       <c r="H2">
-        <f>G2*E2</f>
+        <f t="shared" ref="H2:H11" si="1">G2*E2</f>
         <v>4.3109999999999999</v>
       </c>
       <c r="I2">
-        <f>E2^2</f>
+        <f t="shared" ref="I2:I11" si="2">E2^2</f>
         <v>5162.4224999999988</v>
       </c>
       <c r="J2">
-        <f>I2*G2</f>
+        <f t="shared" ref="J2:J11" si="3">I2*G2</f>
         <v>309.74534999999992</v>
       </c>
       <c r="K2">
-        <f>G2*LOG(G2,2)</f>
+        <f t="shared" ref="K2:K11" si="4">G2*LOG(G2,2)</f>
         <v>-0.2435336213432141</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
-        <f t="shared" ref="A3:A66" ca="1" si="0">RANDBETWEEN(10,1000)</f>
-        <v>868</v>
+        <f t="shared" ref="A3:A66" ca="1" si="5">RANDBETWEEN(10,1000)</f>
+        <v>316</v>
       </c>
       <c r="B3" s="1">
         <v>24</v>
@@ -561,41 +560,41 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <f>D2+$D$15</f>
+        <f t="shared" ref="D3:D11" si="6">D2+$D$15</f>
         <v>218.4</v>
       </c>
       <c r="E3">
-        <f>(D2+D3)/2</f>
+        <f t="shared" ref="E3:E11" si="7">(D2+D3)/2</f>
         <v>169.55</v>
       </c>
       <c r="F3">
         <v>11</v>
       </c>
       <c r="G3">
-        <f>F3/100</f>
+        <f t="shared" si="0"/>
         <v>0.11</v>
       </c>
       <c r="H3">
-        <f>G3*E3</f>
+        <f t="shared" si="1"/>
         <v>18.650500000000001</v>
       </c>
       <c r="I3">
-        <f>E3^2</f>
+        <f t="shared" si="2"/>
         <v>28747.202500000003</v>
       </c>
       <c r="J3">
-        <f>I3*G3</f>
+        <f t="shared" si="3"/>
         <v>3162.1922750000003</v>
       </c>
       <c r="K3">
-        <f>G3*LOG(G3,2)</f>
+        <f t="shared" si="4"/>
         <v>-0.35028670282511704</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f t="shared" ca="1" si="0"/>
-        <v>412</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>202</v>
       </c>
       <c r="B4" s="1">
         <v>35</v>
@@ -604,41 +603,41 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <f>D3+$D$15</f>
+        <f t="shared" si="6"/>
         <v>316.10000000000002</v>
       </c>
       <c r="E4">
-        <f>(D3+D4)/2</f>
+        <f t="shared" si="7"/>
         <v>267.25</v>
       </c>
       <c r="F4">
         <v>13</v>
       </c>
       <c r="G4">
-        <f>F4/100</f>
+        <f t="shared" si="0"/>
         <v>0.13</v>
       </c>
       <c r="H4">
-        <f>G4*E4</f>
+        <f t="shared" si="1"/>
         <v>34.7425</v>
       </c>
       <c r="I4">
-        <f>E4^2</f>
+        <f t="shared" si="2"/>
         <v>71422.5625</v>
       </c>
       <c r="J4">
-        <f>I4*G4</f>
+        <f t="shared" si="3"/>
         <v>9284.9331249999996</v>
       </c>
       <c r="K4">
-        <f>G4*LOG(G4,2)</f>
+        <f t="shared" si="4"/>
         <v>-0.38264414131237223</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
-        <f t="shared" ca="1" si="0"/>
-        <v>772</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>506</v>
       </c>
       <c r="B5" s="1">
         <v>46</v>
@@ -647,41 +646,41 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <f>D4+$D$15</f>
+        <f t="shared" si="6"/>
         <v>413.8</v>
       </c>
       <c r="E5">
-        <f>(D4+D5)/2</f>
+        <f t="shared" si="7"/>
         <v>364.95000000000005</v>
       </c>
       <c r="F5">
         <v>7</v>
       </c>
       <c r="G5">
-        <f>F5/100</f>
+        <f t="shared" si="0"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H5">
-        <f>G5*E5</f>
+        <f t="shared" si="1"/>
         <v>25.546500000000005</v>
       </c>
       <c r="I5">
-        <f>E5^2</f>
+        <f t="shared" si="2"/>
         <v>133188.50250000003</v>
       </c>
       <c r="J5">
-        <f>I5*G5</f>
+        <f t="shared" si="3"/>
         <v>9323.1951750000026</v>
       </c>
       <c r="K5">
-        <f>G5*LOG(G5,2)</f>
+        <f t="shared" si="4"/>
         <v>-0.26855508874019846</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
-        <f t="shared" ca="1" si="0"/>
-        <v>159</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>659</v>
       </c>
       <c r="B6" s="1">
         <v>47</v>
@@ -690,41 +689,41 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <f>D5+$D$15</f>
+        <f t="shared" si="6"/>
         <v>511.5</v>
       </c>
       <c r="E6">
-        <f>(D5+D6)/2</f>
+        <f t="shared" si="7"/>
         <v>462.65</v>
       </c>
       <c r="F6">
         <v>11</v>
       </c>
       <c r="G6">
-        <f>F6/100</f>
+        <f t="shared" si="0"/>
         <v>0.11</v>
       </c>
       <c r="H6">
-        <f>G6*E6</f>
+        <f t="shared" si="1"/>
         <v>50.891500000000001</v>
       </c>
       <c r="I6">
-        <f>E6^2</f>
+        <f t="shared" si="2"/>
         <v>214045.02249999999</v>
       </c>
       <c r="J6">
-        <f>I6*G6</f>
+        <f t="shared" si="3"/>
         <v>23544.952474999998</v>
       </c>
       <c r="K6">
-        <f>G6*LOG(G6,2)</f>
+        <f t="shared" si="4"/>
         <v>-0.35028670282511704</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
-        <f t="shared" ca="1" si="0"/>
-        <v>265</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>358</v>
       </c>
       <c r="B7" s="1">
         <v>49</v>
@@ -733,41 +732,41 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <f>D6+$D$15</f>
+        <f t="shared" si="6"/>
         <v>609.20000000000005</v>
       </c>
       <c r="E7">
-        <f>(D6+D7)/2</f>
+        <f t="shared" si="7"/>
         <v>560.35</v>
       </c>
       <c r="F7">
         <v>7</v>
       </c>
       <c r="G7">
-        <f>F7/100</f>
+        <f t="shared" si="0"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H7">
-        <f>G7*E7</f>
+        <f t="shared" si="1"/>
         <v>39.224500000000006</v>
       </c>
       <c r="I7">
-        <f>E7^2</f>
+        <f t="shared" si="2"/>
         <v>313992.1225</v>
       </c>
       <c r="J7">
-        <f>I7*G7</f>
+        <f t="shared" si="3"/>
         <v>21979.448575000002</v>
       </c>
       <c r="K7">
-        <f>G7*LOG(G7,2)</f>
+        <f t="shared" si="4"/>
         <v>-0.26855508874019846</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
-        <f t="shared" ca="1" si="0"/>
-        <v>701</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>673</v>
       </c>
       <c r="B8" s="1">
         <v>79</v>
@@ -776,41 +775,41 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <f>D7+$D$15</f>
+        <f t="shared" si="6"/>
         <v>706.90000000000009</v>
       </c>
       <c r="E8">
-        <f>(D7+D8)/2</f>
+        <f t="shared" si="7"/>
         <v>658.05000000000007</v>
       </c>
       <c r="F8">
         <v>7</v>
       </c>
       <c r="G8">
-        <f>F8/100</f>
+        <f t="shared" si="0"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H8">
-        <f>G8*E8</f>
+        <f t="shared" si="1"/>
         <v>46.063500000000012</v>
       </c>
       <c r="I8">
-        <f>E8^2</f>
+        <f t="shared" si="2"/>
         <v>433029.80250000011</v>
       </c>
       <c r="J8">
-        <f>I8*G8</f>
+        <f t="shared" si="3"/>
         <v>30312.086175000011</v>
       </c>
       <c r="K8">
-        <f>G8*LOG(G8,2)</f>
+        <f t="shared" si="4"/>
         <v>-0.26855508874019846</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
-        <f t="shared" ca="1" si="0"/>
-        <v>766</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>815</v>
       </c>
       <c r="B9" s="1">
         <v>94</v>
@@ -819,41 +818,41 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <f>D8+$D$15</f>
+        <f t="shared" si="6"/>
         <v>804.60000000000014</v>
       </c>
       <c r="E9">
-        <f>(D8+D9)/2</f>
+        <f t="shared" si="7"/>
         <v>755.75000000000011</v>
       </c>
       <c r="F9">
         <v>8</v>
       </c>
       <c r="G9">
-        <f>F9/100</f>
+        <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
       <c r="H9">
-        <f>G9*E9</f>
+        <f t="shared" si="1"/>
         <v>60.460000000000008</v>
       </c>
       <c r="I9">
-        <f>E9^2</f>
+        <f t="shared" si="2"/>
         <v>571158.06250000012</v>
       </c>
       <c r="J9">
-        <f>I9*G9</f>
+        <f t="shared" si="3"/>
         <v>45692.645000000011</v>
       </c>
       <c r="K9">
-        <f>G9*LOG(G9,2)</f>
+        <f t="shared" si="4"/>
         <v>-0.29150849518197802</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
-        <f t="shared" ca="1" si="0"/>
-        <v>700</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>870</v>
       </c>
       <c r="B10" s="1">
         <v>105</v>
@@ -862,41 +861,41 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <f>D9+$D$15</f>
+        <f t="shared" si="6"/>
         <v>902.30000000000018</v>
       </c>
       <c r="E10">
-        <f>(D9+D10)/2</f>
+        <f t="shared" si="7"/>
         <v>853.45000000000016</v>
       </c>
       <c r="F10">
         <v>14</v>
       </c>
       <c r="G10">
-        <f>F10/100</f>
+        <f t="shared" si="0"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="H10">
-        <f>G10*E10</f>
+        <f t="shared" si="1"/>
         <v>119.48300000000003</v>
       </c>
       <c r="I10">
-        <f>E10^2</f>
+        <f t="shared" si="2"/>
         <v>728376.90250000032</v>
       </c>
       <c r="J10">
-        <f>I10*G10</f>
+        <f t="shared" si="3"/>
         <v>101972.76635000005</v>
       </c>
       <c r="K10">
-        <f>G10*LOG(G10,2)</f>
+        <f t="shared" si="4"/>
         <v>-0.39711017748039695</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
-        <f t="shared" ca="1" si="0"/>
-        <v>385</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>619</v>
       </c>
       <c r="B11" s="1">
         <v>111</v>
@@ -905,41 +904,41 @@
         <v>10</v>
       </c>
       <c r="D11">
-        <f>D10+$D$15</f>
+        <f t="shared" si="6"/>
         <v>1000.0000000000002</v>
       </c>
       <c r="E11">
-        <f>(D10+D11)/2</f>
+        <f t="shared" si="7"/>
         <v>951.1500000000002</v>
       </c>
       <c r="F11">
         <v>16</v>
       </c>
       <c r="G11">
-        <f>F11/100</f>
+        <f t="shared" si="0"/>
         <v>0.16</v>
       </c>
       <c r="H11">
-        <f>G11*E11</f>
+        <f t="shared" si="1"/>
         <v>152.18400000000003</v>
       </c>
       <c r="I11">
-        <f>E11^2</f>
+        <f t="shared" si="2"/>
         <v>904686.32250000036</v>
       </c>
       <c r="J11">
-        <f>I11*G11</f>
+        <f t="shared" si="3"/>
         <v>144749.81160000007</v>
       </c>
       <c r="K11">
-        <f>G11*LOG(G11,2)</f>
+        <f t="shared" si="4"/>
         <v>-0.42301699036395596</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
-        <f t="shared" ca="1" si="0"/>
-        <v>771</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>445</v>
       </c>
       <c r="B12" s="1">
         <v>126</v>
@@ -947,8 +946,8 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
-        <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>206</v>
       </c>
       <c r="B13" s="1">
         <v>144</v>
@@ -956,8 +955,8 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
-        <f t="shared" ca="1" si="0"/>
-        <v>392</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>110</v>
       </c>
       <c r="B14" s="1">
         <v>145</v>
@@ -965,8 +964,8 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
-        <f t="shared" ca="1" si="0"/>
-        <v>664</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>504</v>
       </c>
       <c r="B15" s="1">
         <v>164</v>
@@ -998,8 +997,8 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
-        <f t="shared" ca="1" si="0"/>
-        <v>361</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>443</v>
       </c>
       <c r="B16" s="1">
         <v>176</v>
@@ -1007,8 +1006,8 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
-        <f t="shared" ca="1" si="0"/>
-        <v>762</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>40</v>
       </c>
       <c r="B17" s="1">
         <v>178</v>
@@ -1021,57 +1020,57 @@
         <v>551.55700000000002</v>
       </c>
       <c r="I17" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
-        <f t="shared" ca="1" si="0"/>
-        <v>905</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>512</v>
       </c>
       <c r="B18" s="1">
         <v>182</v>
       </c>
       <c r="G18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H18">
         <f>J15-(H15^2)</f>
         <v>86116.65185100009</v>
       </c>
       <c r="I18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
-        <f t="shared" ca="1" si="0"/>
-        <v>403</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>934</v>
       </c>
       <c r="B19" s="1">
         <v>184</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H19">
         <f>SQRT(H18)</f>
         <v>293.45638832882833</v>
       </c>
       <c r="I19" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
-        <f t="shared" ca="1" si="0"/>
-        <v>258</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>59</v>
       </c>
       <c r="B20" s="1">
         <v>189</v>
       </c>
       <c r="G20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H20">
         <f>K15</f>
@@ -1080,8 +1079,8 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
-        <f t="shared" ca="1" si="0"/>
-        <v>513</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>17</v>
       </c>
       <c r="B21" s="1">
         <v>196</v>
@@ -1089,8 +1088,8 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
-        <f t="shared" ca="1" si="0"/>
-        <v>504</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>219</v>
       </c>
       <c r="B22" s="1">
         <v>228</v>
@@ -1098,8 +1097,8 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
-        <f t="shared" ca="1" si="0"/>
-        <v>565</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>285</v>
       </c>
       <c r="B23" s="1">
         <v>235</v>
@@ -1107,8 +1106,8 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
-        <f t="shared" ca="1" si="0"/>
-        <v>896</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>823</v>
       </c>
       <c r="B24" s="1">
         <v>237</v>
@@ -1116,8 +1115,8 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
-        <f t="shared" ca="1" si="0"/>
-        <v>684</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>391</v>
       </c>
       <c r="B25" s="1">
         <v>254</v>
@@ -1125,8 +1124,8 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
-        <f t="shared" ca="1" si="0"/>
-        <v>678</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>463</v>
       </c>
       <c r="B26" s="1">
         <v>264</v>
@@ -1134,8 +1133,8 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
-        <f t="shared" ca="1" si="0"/>
-        <v>778</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>310</v>
       </c>
       <c r="B27" s="1">
         <v>274</v>
@@ -1143,8 +1142,8 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
-        <f t="shared" ca="1" si="0"/>
-        <v>735</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>552</v>
       </c>
       <c r="B28" s="1">
         <v>292</v>
@@ -1152,8 +1151,8 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
-        <f t="shared" ca="1" si="0"/>
-        <v>980</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>368</v>
       </c>
       <c r="B29" s="1">
         <v>297</v>
@@ -1161,8 +1160,8 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
-        <f t="shared" ca="1" si="0"/>
-        <v>379</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>673</v>
       </c>
       <c r="B30" s="1">
         <v>305</v>
@@ -1170,8 +1169,8 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
-        <f t="shared" ca="1" si="0"/>
-        <v>797</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>21</v>
       </c>
       <c r="B31" s="1">
         <v>324</v>
@@ -1179,8 +1178,8 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
-        <f t="shared" ca="1" si="0"/>
-        <v>377</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>445</v>
       </c>
       <c r="B32" s="1">
         <v>336</v>
@@ -1188,8 +1187,8 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
-        <f t="shared" ca="1" si="0"/>
-        <v>483</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>200</v>
       </c>
       <c r="B33" s="1">
         <v>353</v>
@@ -1197,8 +1196,8 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
-        <f t="shared" ca="1" si="0"/>
-        <v>281</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>35</v>
       </c>
       <c r="B34" s="1">
         <v>358</v>
@@ -1206,8 +1205,8 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <f t="shared" ca="1" si="0"/>
-        <v>241</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>977</v>
       </c>
       <c r="B35" s="1">
         <v>374</v>
@@ -1215,8 +1214,8 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
-        <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>306</v>
       </c>
       <c r="B36" s="1">
         <v>382</v>
@@ -1224,8 +1223,8 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
-        <f t="shared" ca="1" si="0"/>
-        <v>269</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>157</v>
       </c>
       <c r="B37" s="1">
         <v>388</v>
@@ -1233,8 +1232,8 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
-        <f t="shared" ca="1" si="0"/>
-        <v>904</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>996</v>
       </c>
       <c r="B38" s="1">
         <v>388</v>
@@ -1242,8 +1241,8 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
-        <f t="shared" ca="1" si="0"/>
-        <v>401</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>536</v>
       </c>
       <c r="B39" s="1">
         <v>389</v>
@@ -1251,8 +1250,8 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
-        <f t="shared" ca="1" si="0"/>
-        <v>374</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>986</v>
       </c>
       <c r="B40" s="1">
         <v>393</v>
@@ -1260,8 +1259,8 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
-        <f t="shared" ca="1" si="0"/>
-        <v>392</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>103</v>
       </c>
       <c r="B41" s="1">
         <v>396</v>
@@ -1269,8 +1268,8 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
-        <f t="shared" ca="1" si="0"/>
-        <v>920</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>160</v>
       </c>
       <c r="B42" s="1">
         <v>413</v>
@@ -1278,8 +1277,8 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
-        <f t="shared" ca="1" si="0"/>
-        <v>147</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>54</v>
       </c>
       <c r="B43" s="1">
         <v>419</v>
@@ -1287,8 +1286,8 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
-        <f t="shared" ca="1" si="0"/>
-        <v>606</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>894</v>
       </c>
       <c r="B44" s="1">
         <v>438</v>
@@ -1296,8 +1295,8 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
-        <f t="shared" ca="1" si="0"/>
-        <v>980</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>24</v>
       </c>
       <c r="B45" s="1">
         <v>447</v>
@@ -1305,8 +1304,8 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
-        <f t="shared" ca="1" si="0"/>
-        <v>847</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>179</v>
       </c>
       <c r="B46" s="1">
         <v>465</v>
@@ -1314,8 +1313,8 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
-        <f t="shared" ca="1" si="0"/>
-        <v>487</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>262</v>
       </c>
       <c r="B47" s="1">
         <v>466</v>
@@ -1323,8 +1322,8 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
-        <f t="shared" ca="1" si="0"/>
-        <v>792</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>500</v>
       </c>
       <c r="B48" s="1">
         <v>476</v>
@@ -1332,8 +1331,8 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
-        <f t="shared" ca="1" si="0"/>
-        <v>497</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>173</v>
       </c>
       <c r="B49" s="1">
         <v>485</v>
@@ -1341,8 +1340,8 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
-        <f t="shared" ca="1" si="0"/>
-        <v>248</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>967</v>
       </c>
       <c r="B50" s="1">
         <v>490</v>
@@ -1350,8 +1349,8 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
-        <f t="shared" ca="1" si="0"/>
-        <v>560</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>18</v>
       </c>
       <c r="B51" s="1">
         <v>494</v>
@@ -1359,8 +1358,8 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
-        <f t="shared" ca="1" si="0"/>
-        <v>689</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>581</v>
       </c>
       <c r="B52" s="1">
         <v>495</v>
@@ -1368,8 +1367,8 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
-        <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>255</v>
       </c>
       <c r="B53" s="1">
         <v>507</v>
@@ -1377,8 +1376,8 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
-        <f t="shared" ca="1" si="0"/>
-        <v>370</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>696</v>
       </c>
       <c r="B54" s="1">
         <v>538</v>
@@ -1386,8 +1385,8 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
-        <f t="shared" ca="1" si="0"/>
-        <v>147</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>390</v>
       </c>
       <c r="B55" s="1">
         <v>551</v>
@@ -1395,8 +1394,8 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
-        <f t="shared" ca="1" si="0"/>
-        <v>991</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>532</v>
       </c>
       <c r="B56" s="1">
         <v>555</v>
@@ -1404,8 +1403,8 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
-        <f t="shared" ca="1" si="0"/>
-        <v>225</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>408</v>
       </c>
       <c r="B57" s="1">
         <v>561</v>
@@ -1413,8 +1412,8 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
-        <f t="shared" ca="1" si="0"/>
-        <v>957</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>949</v>
       </c>
       <c r="B58" s="1">
         <v>590</v>
@@ -1422,8 +1421,8 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
-        <f t="shared" ca="1" si="0"/>
-        <v>274</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>173</v>
       </c>
       <c r="B59" s="1">
         <v>603</v>
@@ -1431,8 +1430,8 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
-        <f t="shared" ca="1" si="0"/>
-        <v>195</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>869</v>
       </c>
       <c r="B60" s="1">
         <v>607</v>
@@ -1440,8 +1439,8 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
-        <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>147</v>
       </c>
       <c r="B61" s="1">
         <v>640</v>
@@ -1449,8 +1448,8 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
-        <f t="shared" ca="1" si="0"/>
-        <v>297</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>486</v>
       </c>
       <c r="B62" s="1">
         <v>642</v>
@@ -1458,8 +1457,8 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
-        <f t="shared" ca="1" si="0"/>
-        <v>717</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>495</v>
       </c>
       <c r="B63" s="1">
         <v>671</v>
@@ -1467,8 +1466,8 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
-        <f t="shared" ca="1" si="0"/>
-        <v>210</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>277</v>
       </c>
       <c r="B64" s="1">
         <v>674</v>
@@ -1476,8 +1475,8 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
-        <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>729</v>
       </c>
       <c r="B65" s="1">
         <v>696</v>
@@ -1485,8 +1484,8 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
-        <f t="shared" ca="1" si="0"/>
-        <v>913</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>794</v>
       </c>
       <c r="B66" s="1">
         <v>710</v>
@@ -1494,8 +1493,8 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
-        <f t="shared" ref="A67:A101" ca="1" si="1">RANDBETWEEN(10,1000)</f>
-        <v>591</v>
+        <f t="shared" ref="A67:A101" ca="1" si="8">RANDBETWEEN(10,1000)</f>
+        <v>845</v>
       </c>
       <c r="B67" s="1">
         <v>719</v>
@@ -1503,8 +1502,8 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
-        <f t="shared" ca="1" si="1"/>
-        <v>645</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>536</v>
       </c>
       <c r="B68" s="1">
         <v>747</v>
@@ -1512,8 +1511,8 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
-        <f t="shared" ca="1" si="1"/>
-        <v>622</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>619</v>
       </c>
       <c r="B69" s="1">
         <v>761</v>
@@ -1521,8 +1520,8 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
-        <f t="shared" ca="1" si="1"/>
-        <v>315</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>948</v>
       </c>
       <c r="B70" s="1">
         <v>773</v>
@@ -1530,8 +1529,8 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
-        <f t="shared" ca="1" si="1"/>
-        <v>484</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>647</v>
       </c>
       <c r="B71" s="1">
         <v>780</v>
@@ -1539,8 +1538,8 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
-        <f t="shared" ca="1" si="1"/>
-        <v>568</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>960</v>
       </c>
       <c r="B72" s="1">
         <v>785</v>
@@ -1548,8 +1547,8 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
-        <f t="shared" ca="1" si="1"/>
-        <v>122</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>191</v>
       </c>
       <c r="B73" s="1">
         <v>788</v>
@@ -1557,8 +1556,8 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
-        <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>529</v>
       </c>
       <c r="B74" s="1">
         <v>801</v>
@@ -1566,8 +1565,8 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
-        <f t="shared" ca="1" si="1"/>
-        <v>669</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>691</v>
       </c>
       <c r="B75" s="1">
         <v>808</v>
@@ -1575,8 +1574,8 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
-        <f t="shared" ca="1" si="1"/>
-        <v>903</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>413</v>
       </c>
       <c r="B76" s="1">
         <v>809</v>
@@ -1584,8 +1583,8 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
-        <f t="shared" ca="1" si="1"/>
-        <v>917</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>633</v>
       </c>
       <c r="B77" s="1">
         <v>823</v>
@@ -1593,8 +1592,8 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
-        <f t="shared" ca="1" si="1"/>
-        <v>434</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>969</v>
       </c>
       <c r="B78" s="1">
         <v>825</v>
@@ -1602,8 +1601,8 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
-        <f t="shared" ca="1" si="1"/>
-        <v>259</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>905</v>
       </c>
       <c r="B79" s="1">
         <v>830</v>
@@ -1611,8 +1610,8 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
-        <f t="shared" ca="1" si="1"/>
-        <v>146</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>697</v>
       </c>
       <c r="B80" s="1">
         <v>849</v>
@@ -1620,8 +1619,8 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
-        <f t="shared" ca="1" si="1"/>
-        <v>511</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>149</v>
       </c>
       <c r="B81" s="1">
         <v>859</v>
@@ -1629,8 +1628,8 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
-        <f t="shared" ca="1" si="1"/>
-        <v>794</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>269</v>
       </c>
       <c r="B82" s="1">
         <v>869</v>
@@ -1638,8 +1637,8 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
-        <f t="shared" ca="1" si="1"/>
-        <v>954</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>718</v>
       </c>
       <c r="B83" s="1">
         <v>873</v>
@@ -1647,8 +1646,8 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
-        <f t="shared" ca="1" si="1"/>
-        <v>479</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>133</v>
       </c>
       <c r="B84" s="1">
         <v>878</v>
@@ -1656,8 +1655,8 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
-        <f t="shared" ca="1" si="1"/>
-        <v>161</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>919</v>
       </c>
       <c r="B85" s="1">
         <v>879</v>
@@ -1665,8 +1664,8 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
-        <f t="shared" ca="1" si="1"/>
-        <v>273</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>725</v>
       </c>
       <c r="B86" s="1">
         <v>893</v>
@@ -1674,8 +1673,8 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
-        <f t="shared" ca="1" si="1"/>
-        <v>876</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>351</v>
       </c>
       <c r="B87" s="1">
         <v>905</v>
@@ -1683,8 +1682,8 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
-        <f t="shared" ca="1" si="1"/>
-        <v>232</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>319</v>
       </c>
       <c r="B88" s="1">
         <v>915</v>
@@ -1692,8 +1691,8 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
-        <f t="shared" ca="1" si="1"/>
-        <v>720</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>676</v>
       </c>
       <c r="B89" s="1">
         <v>916</v>
@@ -1701,8 +1700,8 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
-        <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>878</v>
       </c>
       <c r="B90" s="1">
         <v>919</v>
@@ -1710,8 +1709,8 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
-        <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>887</v>
       </c>
       <c r="B91" s="1">
         <v>931</v>
@@ -1719,8 +1718,8 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
-        <f t="shared" ca="1" si="1"/>
-        <v>573</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>138</v>
       </c>
       <c r="B92" s="1">
         <v>936</v>
@@ -1728,8 +1727,8 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
-        <f t="shared" ca="1" si="1"/>
-        <v>308</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>848</v>
       </c>
       <c r="B93" s="1">
         <v>959</v>
@@ -1737,8 +1736,8 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
-        <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>459</v>
       </c>
       <c r="B94" s="1">
         <v>964</v>
@@ -1746,8 +1745,8 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
-        <f t="shared" ca="1" si="1"/>
-        <v>286</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>711</v>
       </c>
       <c r="B95" s="1">
         <v>970</v>
@@ -1755,8 +1754,8 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
-        <f t="shared" ca="1" si="1"/>
-        <v>759</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>729</v>
       </c>
       <c r="B96" s="1">
         <v>980</v>
@@ -1764,8 +1763,8 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
-        <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>650</v>
       </c>
       <c r="B97" s="1">
         <v>982</v>
@@ -1773,8 +1772,8 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
-        <f t="shared" ca="1" si="1"/>
-        <v>438</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>587</v>
       </c>
       <c r="B98" s="1">
         <v>988</v>
@@ -1782,8 +1781,8 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
-        <f t="shared" ca="1" si="1"/>
-        <v>714</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>760</v>
       </c>
       <c r="B99" s="1">
         <v>997</v>
@@ -1791,8 +1790,8 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
-        <f t="shared" ca="1" si="1"/>
-        <v>654</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>357</v>
       </c>
       <c r="B100" s="1">
         <v>998</v>
@@ -1800,8 +1799,8 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
-        <f t="shared" ca="1" si="1"/>
-        <v>645</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>597</v>
       </c>
       <c r="B101" s="1">
         <v>1000</v>

--- a/PIS/media/prak9.xlsx
+++ b/PIS/media/prak9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3BE3DA\studies\PIS\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB98CA0A-7135-454A-A0D4-72693635226B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2241CB7F-81B4-412C-9AE7-FFAD182DA623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -465,7 +465,7 @@
   <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -508,7 +508,7 @@
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <f ca="1">RANDBETWEEN(10,1000)</f>
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="B2" s="1">
         <v>23</v>
@@ -525,15 +525,16 @@
         <v>71.849999999999994</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <f>COUNTIF(B2:B101,"&lt;110")</f>
+        <v>9</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G11" si="0">F2/100</f>
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H11" si="1">G2*E2</f>
-        <v>4.3109999999999999</v>
+        <v>6.466499999999999</v>
       </c>
       <c r="I2">
         <f t="shared" ref="I2:I11" si="2">E2^2</f>
@@ -541,17 +542,17 @@
       </c>
       <c r="J2">
         <f t="shared" ref="J2:J11" si="3">I2*G2</f>
-        <v>309.74534999999992</v>
+        <v>464.61802499999988</v>
       </c>
       <c r="K2">
         <f t="shared" ref="K2:K11" si="4">G2*LOG(G2,2)</f>
-        <v>-0.2435336213432141</v>
+        <v>-0.31265380694991712</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <f t="shared" ref="A3:A66" ca="1" si="5">RANDBETWEEN(10,1000)</f>
-        <v>316</v>
+        <v>989</v>
       </c>
       <c r="B3" s="1">
         <v>24</v>
@@ -568,15 +569,15 @@
         <v>169.55</v>
       </c>
       <c r="F3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
-        <v>18.650500000000001</v>
+        <v>20.346</v>
       </c>
       <c r="I3">
         <f t="shared" si="2"/>
@@ -584,17 +585,17 @@
       </c>
       <c r="J3">
         <f t="shared" si="3"/>
-        <v>3162.1922750000003</v>
+        <v>3449.6643000000004</v>
       </c>
       <c r="K3">
         <f t="shared" si="4"/>
-        <v>-0.35028670282511704</v>
+        <v>-0.36706724268642821</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" ca="1" si="5"/>
-        <v>202</v>
+        <v>957</v>
       </c>
       <c r="B4" s="1">
         <v>35</v>
@@ -611,15 +612,15 @@
         <v>267.25</v>
       </c>
       <c r="F4">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>34.7425</v>
+        <v>21.38</v>
       </c>
       <c r="I4">
         <f t="shared" si="2"/>
@@ -627,17 +628,17 @@
       </c>
       <c r="J4">
         <f t="shared" si="3"/>
-        <v>9284.9331249999996</v>
+        <v>5713.8050000000003</v>
       </c>
       <c r="K4">
         <f t="shared" si="4"/>
-        <v>-0.38264414131237223</v>
+        <v>-0.29150849518197802</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" ca="1" si="5"/>
-        <v>506</v>
+        <v>647</v>
       </c>
       <c r="B5" s="1">
         <v>46</v>
@@ -654,15 +655,15 @@
         <v>364.95000000000005</v>
       </c>
       <c r="F5">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.12</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>25.546500000000005</v>
+        <v>43.794000000000004</v>
       </c>
       <c r="I5">
         <f t="shared" si="2"/>
@@ -670,17 +671,17 @@
       </c>
       <c r="J5">
         <f t="shared" si="3"/>
-        <v>9323.1951750000026</v>
+        <v>15982.620300000002</v>
       </c>
       <c r="K5">
         <f t="shared" si="4"/>
-        <v>-0.26855508874019846</v>
+        <v>-0.36706724268642821</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" ca="1" si="5"/>
-        <v>659</v>
+        <v>239</v>
       </c>
       <c r="B6" s="1">
         <v>47</v>
@@ -723,7 +724,7 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" ca="1" si="5"/>
-        <v>358</v>
+        <v>890</v>
       </c>
       <c r="B7" s="1">
         <v>49</v>
@@ -740,15 +741,15 @@
         <v>560.35</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>39.224500000000006</v>
+        <v>33.621000000000002</v>
       </c>
       <c r="I7">
         <f t="shared" si="2"/>
@@ -756,17 +757,17 @@
       </c>
       <c r="J7">
         <f t="shared" si="3"/>
-        <v>21979.448575000002</v>
+        <v>18839.52735</v>
       </c>
       <c r="K7">
         <f t="shared" si="4"/>
-        <v>-0.26855508874019846</v>
+        <v>-0.2435336213432141</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" ca="1" si="5"/>
-        <v>673</v>
+        <v>122</v>
       </c>
       <c r="B8" s="1">
         <v>79</v>
@@ -809,7 +810,7 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" ca="1" si="5"/>
-        <v>815</v>
+        <v>618</v>
       </c>
       <c r="B9" s="1">
         <v>94</v>
@@ -852,7 +853,7 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" ca="1" si="5"/>
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="B10" s="1">
         <v>105</v>
@@ -869,15 +870,15 @@
         <v>853.45000000000016</v>
       </c>
       <c r="F10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>119.48300000000003</v>
+        <v>110.94850000000002</v>
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
@@ -885,17 +886,17 @@
       </c>
       <c r="J10">
         <f t="shared" si="3"/>
-        <v>101972.76635000005</v>
+        <v>94688.997325000048</v>
       </c>
       <c r="K10">
         <f t="shared" si="4"/>
-        <v>-0.39711017748039695</v>
+        <v>-0.38264414131237223</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" ca="1" si="5"/>
-        <v>619</v>
+        <v>998</v>
       </c>
       <c r="B11" s="1">
         <v>111</v>
@@ -912,15 +913,15 @@
         <v>951.1500000000002</v>
       </c>
       <c r="F11">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>152.18400000000003</v>
+        <v>133.16100000000003</v>
       </c>
       <c r="I11">
         <f t="shared" si="2"/>
@@ -928,17 +929,17 @@
       </c>
       <c r="J11">
         <f t="shared" si="3"/>
-        <v>144749.81160000007</v>
+        <v>126656.08515000006</v>
       </c>
       <c r="K11">
         <f t="shared" si="4"/>
-        <v>-0.42301699036395596</v>
+        <v>-0.39711017748039695</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" ca="1" si="5"/>
-        <v>445</v>
+        <v>707</v>
       </c>
       <c r="B12" s="1">
         <v>126</v>
@@ -947,7 +948,7 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" ca="1" si="5"/>
-        <v>206</v>
+        <v>703</v>
       </c>
       <c r="B13" s="1">
         <v>144</v>
@@ -956,7 +957,7 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" ca="1" si="5"/>
-        <v>110</v>
+        <v>317</v>
       </c>
       <c r="B14" s="1">
         <v>145</v>
@@ -965,7 +966,7 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" ca="1" si="5"/>
-        <v>504</v>
+        <v>999</v>
       </c>
       <c r="B15" s="1">
         <v>164</v>
@@ -984,21 +985,21 @@
       </c>
       <c r="H15">
         <f>SUM(H2:H11)</f>
-        <v>551.55700000000002</v>
+        <v>527.13200000000006</v>
       </c>
       <c r="J15">
         <f>SUM(J2:J11)</f>
-        <v>390331.77610000013</v>
+        <v>365345.00110000011</v>
       </c>
       <c r="K15">
         <f>-SUM(K2:K11)</f>
-        <v>3.2440520975527467</v>
+        <v>3.2719350143880286</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" ca="1" si="5"/>
-        <v>443</v>
+        <v>219</v>
       </c>
       <c r="B16" s="1">
         <v>176</v>
@@ -1007,7 +1008,7 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" ca="1" si="5"/>
-        <v>40</v>
+        <v>860</v>
       </c>
       <c r="B17" s="1">
         <v>178</v>
@@ -1017,7 +1018,7 @@
       </c>
       <c r="H17">
         <f>H15</f>
-        <v>551.55700000000002</v>
+        <v>527.13200000000006</v>
       </c>
       <c r="I17" t="s">
         <v>14</v>
@@ -1026,7 +1027,7 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" ca="1" si="5"/>
-        <v>512</v>
+        <v>81</v>
       </c>
       <c r="B18" s="1">
         <v>182</v>
@@ -1036,7 +1037,7 @@
       </c>
       <c r="H18">
         <f>J15-(H15^2)</f>
-        <v>86116.65185100009</v>
+        <v>87476.855676000065</v>
       </c>
       <c r="I18" t="s">
         <v>15</v>
@@ -1045,7 +1046,7 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" ca="1" si="5"/>
-        <v>934</v>
+        <v>509</v>
       </c>
       <c r="B19" s="1">
         <v>184</v>
@@ -1055,7 +1056,7 @@
       </c>
       <c r="H19">
         <f>SQRT(H18)</f>
-        <v>293.45638832882833</v>
+        <v>295.76486551989245</v>
       </c>
       <c r="I19" t="s">
         <v>14</v>
@@ -1064,7 +1065,7 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>223</v>
       </c>
       <c r="B20" s="1">
         <v>189</v>
@@ -1074,13 +1075,13 @@
       </c>
       <c r="H20">
         <f>K15</f>
-        <v>3.2440520975527467</v>
+        <v>3.2719350143880286</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" ca="1" si="5"/>
-        <v>17</v>
+        <v>460</v>
       </c>
       <c r="B21" s="1">
         <v>196</v>
@@ -1089,7 +1090,7 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" ca="1" si="5"/>
-        <v>219</v>
+        <v>283</v>
       </c>
       <c r="B22" s="1">
         <v>228</v>
@@ -1098,7 +1099,7 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" ca="1" si="5"/>
-        <v>285</v>
+        <v>848</v>
       </c>
       <c r="B23" s="1">
         <v>235</v>
@@ -1107,7 +1108,7 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" ca="1" si="5"/>
-        <v>823</v>
+        <v>709</v>
       </c>
       <c r="B24" s="1">
         <v>237</v>
@@ -1116,7 +1117,7 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" ca="1" si="5"/>
-        <v>391</v>
+        <v>15</v>
       </c>
       <c r="B25" s="1">
         <v>254</v>
@@ -1125,7 +1126,7 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" ca="1" si="5"/>
-        <v>463</v>
+        <v>204</v>
       </c>
       <c r="B26" s="1">
         <v>264</v>
@@ -1134,7 +1135,7 @@
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" ca="1" si="5"/>
-        <v>310</v>
+        <v>47</v>
       </c>
       <c r="B27" s="1">
         <v>274</v>
@@ -1143,7 +1144,7 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" ca="1" si="5"/>
-        <v>552</v>
+        <v>90</v>
       </c>
       <c r="B28" s="1">
         <v>292</v>
@@ -1152,7 +1153,7 @@
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" ca="1" si="5"/>
-        <v>368</v>
+        <v>406</v>
       </c>
       <c r="B29" s="1">
         <v>297</v>
@@ -1161,7 +1162,7 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" ca="1" si="5"/>
-        <v>673</v>
+        <v>398</v>
       </c>
       <c r="B30" s="1">
         <v>305</v>
@@ -1170,7 +1171,7 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>257</v>
       </c>
       <c r="B31" s="1">
         <v>324</v>
@@ -1179,7 +1180,7 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" ca="1" si="5"/>
-        <v>445</v>
+        <v>644</v>
       </c>
       <c r="B32" s="1">
         <v>336</v>
@@ -1188,7 +1189,7 @@
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" ca="1" si="5"/>
-        <v>200</v>
+        <v>744</v>
       </c>
       <c r="B33" s="1">
         <v>353</v>
@@ -1197,7 +1198,7 @@
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" ca="1" si="5"/>
-        <v>35</v>
+        <v>907</v>
       </c>
       <c r="B34" s="1">
         <v>358</v>
@@ -1206,7 +1207,7 @@
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <f t="shared" ca="1" si="5"/>
-        <v>977</v>
+        <v>999</v>
       </c>
       <c r="B35" s="1">
         <v>374</v>
@@ -1215,7 +1216,7 @@
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <f t="shared" ca="1" si="5"/>
-        <v>306</v>
+        <v>817</v>
       </c>
       <c r="B36" s="1">
         <v>382</v>
@@ -1224,7 +1225,7 @@
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <f t="shared" ca="1" si="5"/>
-        <v>157</v>
+        <v>506</v>
       </c>
       <c r="B37" s="1">
         <v>388</v>
@@ -1233,7 +1234,7 @@
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <f t="shared" ca="1" si="5"/>
-        <v>996</v>
+        <v>821</v>
       </c>
       <c r="B38" s="1">
         <v>388</v>
@@ -1242,7 +1243,7 @@
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <f t="shared" ca="1" si="5"/>
-        <v>536</v>
+        <v>308</v>
       </c>
       <c r="B39" s="1">
         <v>389</v>
@@ -1251,7 +1252,7 @@
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <f t="shared" ca="1" si="5"/>
-        <v>986</v>
+        <v>858</v>
       </c>
       <c r="B40" s="1">
         <v>393</v>
@@ -1260,7 +1261,7 @@
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <f t="shared" ca="1" si="5"/>
-        <v>103</v>
+        <v>838</v>
       </c>
       <c r="B41" s="1">
         <v>396</v>
@@ -1269,7 +1270,7 @@
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" ca="1" si="5"/>
-        <v>160</v>
+        <v>57</v>
       </c>
       <c r="B42" s="1">
         <v>413</v>
@@ -1278,7 +1279,7 @@
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>737</v>
       </c>
       <c r="B43" s="1">
         <v>419</v>
@@ -1287,7 +1288,7 @@
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <f t="shared" ca="1" si="5"/>
-        <v>894</v>
+        <v>65</v>
       </c>
       <c r="B44" s="1">
         <v>438</v>
@@ -1296,7 +1297,7 @@
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <f t="shared" ca="1" si="5"/>
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="B45" s="1">
         <v>447</v>
@@ -1305,7 +1306,7 @@
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <f t="shared" ca="1" si="5"/>
-        <v>179</v>
+        <v>231</v>
       </c>
       <c r="B46" s="1">
         <v>465</v>
@@ -1314,7 +1315,7 @@
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <f t="shared" ca="1" si="5"/>
-        <v>262</v>
+        <v>187</v>
       </c>
       <c r="B47" s="1">
         <v>466</v>
@@ -1323,7 +1324,7 @@
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <f t="shared" ca="1" si="5"/>
-        <v>500</v>
+        <v>116</v>
       </c>
       <c r="B48" s="1">
         <v>476</v>
@@ -1332,7 +1333,7 @@
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <f t="shared" ca="1" si="5"/>
-        <v>173</v>
+        <v>374</v>
       </c>
       <c r="B49" s="1">
         <v>485</v>
@@ -1341,7 +1342,7 @@
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <f t="shared" ca="1" si="5"/>
-        <v>967</v>
+        <v>132</v>
       </c>
       <c r="B50" s="1">
         <v>490</v>
@@ -1350,7 +1351,7 @@
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <f t="shared" ca="1" si="5"/>
-        <v>18</v>
+        <v>270</v>
       </c>
       <c r="B51" s="1">
         <v>494</v>
@@ -1359,7 +1360,7 @@
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <f t="shared" ca="1" si="5"/>
-        <v>581</v>
+        <v>624</v>
       </c>
       <c r="B52" s="1">
         <v>495</v>
@@ -1368,7 +1369,7 @@
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <f t="shared" ca="1" si="5"/>
-        <v>255</v>
+        <v>358</v>
       </c>
       <c r="B53" s="1">
         <v>507</v>
@@ -1377,7 +1378,7 @@
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <f t="shared" ca="1" si="5"/>
-        <v>696</v>
+        <v>673</v>
       </c>
       <c r="B54" s="1">
         <v>538</v>
@@ -1386,7 +1387,7 @@
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <f t="shared" ca="1" si="5"/>
-        <v>390</v>
+        <v>825</v>
       </c>
       <c r="B55" s="1">
         <v>551</v>
@@ -1395,7 +1396,7 @@
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <f t="shared" ca="1" si="5"/>
-        <v>532</v>
+        <v>742</v>
       </c>
       <c r="B56" s="1">
         <v>555</v>
@@ -1404,7 +1405,7 @@
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <f t="shared" ca="1" si="5"/>
-        <v>408</v>
+        <v>136</v>
       </c>
       <c r="B57" s="1">
         <v>561</v>
@@ -1413,7 +1414,7 @@
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <f t="shared" ca="1" si="5"/>
-        <v>949</v>
+        <v>967</v>
       </c>
       <c r="B58" s="1">
         <v>590</v>
@@ -1422,7 +1423,7 @@
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <f t="shared" ca="1" si="5"/>
-        <v>173</v>
+        <v>656</v>
       </c>
       <c r="B59" s="1">
         <v>603</v>
@@ -1431,7 +1432,7 @@
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <f t="shared" ca="1" si="5"/>
-        <v>869</v>
+        <v>599</v>
       </c>
       <c r="B60" s="1">
         <v>607</v>
@@ -1440,7 +1441,7 @@
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <f t="shared" ca="1" si="5"/>
-        <v>147</v>
+        <v>531</v>
       </c>
       <c r="B61" s="1">
         <v>640</v>
@@ -1449,7 +1450,7 @@
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <f t="shared" ca="1" si="5"/>
-        <v>486</v>
+        <v>129</v>
       </c>
       <c r="B62" s="1">
         <v>642</v>
@@ -1458,7 +1459,7 @@
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <f t="shared" ca="1" si="5"/>
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="B63" s="1">
         <v>671</v>
@@ -1467,7 +1468,7 @@
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <f t="shared" ca="1" si="5"/>
-        <v>277</v>
+        <v>626</v>
       </c>
       <c r="B64" s="1">
         <v>674</v>
@@ -1476,7 +1477,7 @@
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <f t="shared" ca="1" si="5"/>
-        <v>729</v>
+        <v>482</v>
       </c>
       <c r="B65" s="1">
         <v>696</v>
@@ -1485,7 +1486,7 @@
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
         <f t="shared" ca="1" si="5"/>
-        <v>794</v>
+        <v>139</v>
       </c>
       <c r="B66" s="1">
         <v>710</v>
@@ -1494,7 +1495,7 @@
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
         <f t="shared" ref="A67:A101" ca="1" si="8">RANDBETWEEN(10,1000)</f>
-        <v>845</v>
+        <v>421</v>
       </c>
       <c r="B67" s="1">
         <v>719</v>
@@ -1503,7 +1504,7 @@
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
         <f t="shared" ca="1" si="8"/>
-        <v>536</v>
+        <v>896</v>
       </c>
       <c r="B68" s="1">
         <v>747</v>
@@ -1512,7 +1513,7 @@
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <f t="shared" ca="1" si="8"/>
-        <v>619</v>
+        <v>255</v>
       </c>
       <c r="B69" s="1">
         <v>761</v>
@@ -1521,7 +1522,7 @@
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <f t="shared" ca="1" si="8"/>
-        <v>948</v>
+        <v>937</v>
       </c>
       <c r="B70" s="1">
         <v>773</v>
@@ -1530,7 +1531,7 @@
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <f t="shared" ca="1" si="8"/>
-        <v>647</v>
+        <v>83</v>
       </c>
       <c r="B71" s="1">
         <v>780</v>
@@ -1539,7 +1540,7 @@
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <f t="shared" ca="1" si="8"/>
-        <v>960</v>
+        <v>582</v>
       </c>
       <c r="B72" s="1">
         <v>785</v>
@@ -1548,7 +1549,7 @@
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <f t="shared" ca="1" si="8"/>
-        <v>191</v>
+        <v>635</v>
       </c>
       <c r="B73" s="1">
         <v>788</v>
@@ -1557,7 +1558,7 @@
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <f t="shared" ca="1" si="8"/>
-        <v>529</v>
+        <v>714</v>
       </c>
       <c r="B74" s="1">
         <v>801</v>
@@ -1566,7 +1567,7 @@
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <f t="shared" ca="1" si="8"/>
-        <v>691</v>
+        <v>760</v>
       </c>
       <c r="B75" s="1">
         <v>808</v>
@@ -1575,7 +1576,7 @@
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <f t="shared" ca="1" si="8"/>
-        <v>413</v>
+        <v>323</v>
       </c>
       <c r="B76" s="1">
         <v>809</v>
@@ -1584,7 +1585,7 @@
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <f t="shared" ca="1" si="8"/>
-        <v>633</v>
+        <v>432</v>
       </c>
       <c r="B77" s="1">
         <v>823</v>
@@ -1593,7 +1594,7 @@
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
         <f t="shared" ca="1" si="8"/>
-        <v>969</v>
+        <v>104</v>
       </c>
       <c r="B78" s="1">
         <v>825</v>
@@ -1602,7 +1603,7 @@
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
         <f t="shared" ca="1" si="8"/>
-        <v>905</v>
+        <v>326</v>
       </c>
       <c r="B79" s="1">
         <v>830</v>
@@ -1611,7 +1612,7 @@
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
         <f t="shared" ca="1" si="8"/>
-        <v>697</v>
+        <v>185</v>
       </c>
       <c r="B80" s="1">
         <v>849</v>
@@ -1620,7 +1621,7 @@
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <f t="shared" ca="1" si="8"/>
-        <v>149</v>
+        <v>250</v>
       </c>
       <c r="B81" s="1">
         <v>859</v>
@@ -1629,7 +1630,7 @@
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <f t="shared" ca="1" si="8"/>
-        <v>269</v>
+        <v>489</v>
       </c>
       <c r="B82" s="1">
         <v>869</v>
@@ -1638,7 +1639,7 @@
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
         <f t="shared" ca="1" si="8"/>
-        <v>718</v>
+        <v>285</v>
       </c>
       <c r="B83" s="1">
         <v>873</v>
@@ -1647,7 +1648,7 @@
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <f t="shared" ca="1" si="8"/>
-        <v>133</v>
+        <v>919</v>
       </c>
       <c r="B84" s="1">
         <v>878</v>
@@ -1656,7 +1657,7 @@
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <f t="shared" ca="1" si="8"/>
-        <v>919</v>
+        <v>355</v>
       </c>
       <c r="B85" s="1">
         <v>879</v>
@@ -1665,7 +1666,7 @@
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <f t="shared" ca="1" si="8"/>
-        <v>725</v>
+        <v>464</v>
       </c>
       <c r="B86" s="1">
         <v>893</v>
@@ -1674,7 +1675,7 @@
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <f t="shared" ca="1" si="8"/>
-        <v>351</v>
+        <v>197</v>
       </c>
       <c r="B87" s="1">
         <v>905</v>
@@ -1683,7 +1684,7 @@
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
         <f t="shared" ca="1" si="8"/>
-        <v>319</v>
+        <v>99</v>
       </c>
       <c r="B88" s="1">
         <v>915</v>
@@ -1692,7 +1693,7 @@
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
         <f t="shared" ca="1" si="8"/>
-        <v>676</v>
+        <v>395</v>
       </c>
       <c r="B89" s="1">
         <v>916</v>
@@ -1701,7 +1702,7 @@
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
         <f t="shared" ca="1" si="8"/>
-        <v>878</v>
+        <v>415</v>
       </c>
       <c r="B90" s="1">
         <v>919</v>
@@ -1710,7 +1711,7 @@
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
         <f t="shared" ca="1" si="8"/>
-        <v>887</v>
+        <v>613</v>
       </c>
       <c r="B91" s="1">
         <v>931</v>
@@ -1719,7 +1720,7 @@
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
         <f t="shared" ca="1" si="8"/>
-        <v>138</v>
+        <v>301</v>
       </c>
       <c r="B92" s="1">
         <v>936</v>
@@ -1728,7 +1729,7 @@
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
         <f t="shared" ca="1" si="8"/>
-        <v>848</v>
+        <v>259</v>
       </c>
       <c r="B93" s="1">
         <v>959</v>
@@ -1737,7 +1738,7 @@
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
         <f t="shared" ca="1" si="8"/>
-        <v>459</v>
+        <v>656</v>
       </c>
       <c r="B94" s="1">
         <v>964</v>
@@ -1746,7 +1747,7 @@
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
         <f t="shared" ca="1" si="8"/>
-        <v>711</v>
+        <v>26</v>
       </c>
       <c r="B95" s="1">
         <v>970</v>
@@ -1755,7 +1756,7 @@
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
         <f t="shared" ca="1" si="8"/>
-        <v>729</v>
+        <v>151</v>
       </c>
       <c r="B96" s="1">
         <v>980</v>
@@ -1764,7 +1765,7 @@
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
         <f t="shared" ca="1" si="8"/>
-        <v>650</v>
+        <v>460</v>
       </c>
       <c r="B97" s="1">
         <v>982</v>
@@ -1773,7 +1774,7 @@
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
         <f t="shared" ca="1" si="8"/>
-        <v>587</v>
+        <v>608</v>
       </c>
       <c r="B98" s="1">
         <v>988</v>
@@ -1782,7 +1783,7 @@
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
         <f t="shared" ca="1" si="8"/>
-        <v>760</v>
+        <v>975</v>
       </c>
       <c r="B99" s="1">
         <v>997</v>
@@ -1791,7 +1792,7 @@
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
         <f t="shared" ca="1" si="8"/>
-        <v>357</v>
+        <v>714</v>
       </c>
       <c r="B100" s="1">
         <v>998</v>
@@ -1800,7 +1801,7 @@
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
         <f t="shared" ca="1" si="8"/>
-        <v>597</v>
+        <v>565</v>
       </c>
       <c r="B101" s="1">
         <v>1000</v>

--- a/PIS/media/prak9.xlsx
+++ b/PIS/media/prak9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3BE3DA\studies\PIS\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2241CB7F-81B4-412C-9AE7-FFAD182DA623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A52C1F-D7F2-4FBE-AB6B-461E3C84D2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -465,7 +465,7 @@
   <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -508,7 +508,7 @@
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <f ca="1">RANDBETWEEN(10,1000)</f>
-        <v>306</v>
+        <v>632</v>
       </c>
       <c r="B2" s="1">
         <v>23</v>
@@ -552,7 +552,7 @@
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <f t="shared" ref="A3:A66" ca="1" si="5">RANDBETWEEN(10,1000)</f>
-        <v>989</v>
+        <v>460</v>
       </c>
       <c r="B3" s="1">
         <v>24</v>
@@ -569,15 +569,15 @@
         <v>169.55</v>
       </c>
       <c r="F3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
-        <v>20.346</v>
+        <v>18.650500000000001</v>
       </c>
       <c r="I3">
         <f t="shared" si="2"/>
@@ -585,17 +585,17 @@
       </c>
       <c r="J3">
         <f t="shared" si="3"/>
-        <v>3449.6643000000004</v>
+        <v>3162.1922750000003</v>
       </c>
       <c r="K3">
         <f t="shared" si="4"/>
-        <v>-0.36706724268642821</v>
+        <v>-0.35028670282511704</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" ca="1" si="5"/>
-        <v>957</v>
+        <v>332</v>
       </c>
       <c r="B4" s="1">
         <v>35</v>
@@ -612,15 +612,15 @@
         <v>267.25</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>21.38</v>
+        <v>24.052499999999998</v>
       </c>
       <c r="I4">
         <f t="shared" si="2"/>
@@ -628,17 +628,17 @@
       </c>
       <c r="J4">
         <f t="shared" si="3"/>
-        <v>5713.8050000000003</v>
+        <v>6428.0306249999994</v>
       </c>
       <c r="K4">
         <f t="shared" si="4"/>
-        <v>-0.29150849518197802</v>
+        <v>-0.31265380694991712</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" ca="1" si="5"/>
-        <v>647</v>
+        <v>421</v>
       </c>
       <c r="B5" s="1">
         <v>46</v>
@@ -681,7 +681,7 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" ca="1" si="5"/>
-        <v>239</v>
+        <v>766</v>
       </c>
       <c r="B6" s="1">
         <v>47</v>
@@ -724,7 +724,7 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" ca="1" si="5"/>
-        <v>890</v>
+        <v>577</v>
       </c>
       <c r="B7" s="1">
         <v>49</v>
@@ -767,7 +767,7 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" ca="1" si="5"/>
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="B8" s="1">
         <v>79</v>
@@ -810,7 +810,7 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" ca="1" si="5"/>
-        <v>618</v>
+        <v>236</v>
       </c>
       <c r="B9" s="1">
         <v>94</v>
@@ -853,7 +853,7 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" ca="1" si="5"/>
-        <v>863</v>
+        <v>899</v>
       </c>
       <c r="B10" s="1">
         <v>105</v>
@@ -896,7 +896,7 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" ca="1" si="5"/>
-        <v>998</v>
+        <v>304</v>
       </c>
       <c r="B11" s="1">
         <v>111</v>
@@ -939,7 +939,7 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" ca="1" si="5"/>
-        <v>707</v>
+        <v>582</v>
       </c>
       <c r="B12" s="1">
         <v>126</v>
@@ -948,7 +948,7 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" ca="1" si="5"/>
-        <v>703</v>
+        <v>625</v>
       </c>
       <c r="B13" s="1">
         <v>144</v>
@@ -957,7 +957,7 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" ca="1" si="5"/>
-        <v>317</v>
+        <v>211</v>
       </c>
       <c r="B14" s="1">
         <v>145</v>
@@ -966,7 +966,7 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" ca="1" si="5"/>
-        <v>999</v>
+        <v>702</v>
       </c>
       <c r="B15" s="1">
         <v>164</v>
@@ -985,21 +985,21 @@
       </c>
       <c r="H15">
         <f>SUM(H2:H11)</f>
-        <v>527.13200000000006</v>
+        <v>528.10900000000004</v>
       </c>
       <c r="J15">
         <f>SUM(J2:J11)</f>
-        <v>365345.00110000011</v>
+        <v>365771.75470000017</v>
       </c>
       <c r="K15">
         <f>-SUM(K2:K11)</f>
-        <v>3.2719350143880286</v>
+        <v>3.2762997862946568</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" ca="1" si="5"/>
-        <v>219</v>
+        <v>343</v>
       </c>
       <c r="B16" s="1">
         <v>176</v>
@@ -1008,7 +1008,7 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" ca="1" si="5"/>
-        <v>860</v>
+        <v>364</v>
       </c>
       <c r="B17" s="1">
         <v>178</v>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="H17">
         <f>H15</f>
-        <v>527.13200000000006</v>
+        <v>528.10900000000004</v>
       </c>
       <c r="I17" t="s">
         <v>14</v>
@@ -1027,7 +1027,7 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
+        <v>853</v>
       </c>
       <c r="B18" s="1">
         <v>182</v>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="H18">
         <f>J15-(H15^2)</f>
-        <v>87476.855676000065</v>
+        <v>86872.638819000102</v>
       </c>
       <c r="I18" t="s">
         <v>15</v>
@@ -1046,7 +1046,7 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" ca="1" si="5"/>
-        <v>509</v>
+        <v>913</v>
       </c>
       <c r="B19" s="1">
         <v>184</v>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="H19">
         <f>SQRT(H18)</f>
-        <v>295.76486551989245</v>
+        <v>294.74164758140324</v>
       </c>
       <c r="I19" t="s">
         <v>14</v>
@@ -1065,7 +1065,7 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" ca="1" si="5"/>
-        <v>223</v>
+        <v>588</v>
       </c>
       <c r="B20" s="1">
         <v>189</v>
@@ -1075,13 +1075,13 @@
       </c>
       <c r="H20">
         <f>K15</f>
-        <v>3.2719350143880286</v>
+        <v>3.2762997862946568</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" ca="1" si="5"/>
-        <v>460</v>
+        <v>588</v>
       </c>
       <c r="B21" s="1">
         <v>196</v>
@@ -1090,7 +1090,7 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" ca="1" si="5"/>
-        <v>283</v>
+        <v>546</v>
       </c>
       <c r="B22" s="1">
         <v>228</v>
@@ -1099,7 +1099,7 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" ca="1" si="5"/>
-        <v>848</v>
+        <v>945</v>
       </c>
       <c r="B23" s="1">
         <v>235</v>
@@ -1108,7 +1108,7 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" ca="1" si="5"/>
-        <v>709</v>
+        <v>338</v>
       </c>
       <c r="B24" s="1">
         <v>237</v>
@@ -1117,7 +1117,7 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" ca="1" si="5"/>
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="B25" s="1">
         <v>254</v>
@@ -1126,7 +1126,7 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" ca="1" si="5"/>
-        <v>204</v>
+        <v>47</v>
       </c>
       <c r="B26" s="1">
         <v>264</v>
@@ -1135,7 +1135,7 @@
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" ca="1" si="5"/>
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1">
         <v>274</v>
@@ -1144,7 +1144,7 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>228</v>
       </c>
       <c r="B28" s="1">
         <v>292</v>
@@ -1153,7 +1153,7 @@
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" ca="1" si="5"/>
-        <v>406</v>
+        <v>177</v>
       </c>
       <c r="B29" s="1">
         <v>297</v>
@@ -1162,7 +1162,7 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" ca="1" si="5"/>
-        <v>398</v>
+        <v>190</v>
       </c>
       <c r="B30" s="1">
         <v>305</v>
@@ -1171,7 +1171,7 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" ca="1" si="5"/>
-        <v>257</v>
+        <v>894</v>
       </c>
       <c r="B31" s="1">
         <v>324</v>
@@ -1180,7 +1180,7 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" ca="1" si="5"/>
-        <v>644</v>
+        <v>548</v>
       </c>
       <c r="B32" s="1">
         <v>336</v>
@@ -1189,7 +1189,7 @@
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" ca="1" si="5"/>
-        <v>744</v>
+        <v>318</v>
       </c>
       <c r="B33" s="1">
         <v>353</v>
@@ -1198,7 +1198,7 @@
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" ca="1" si="5"/>
-        <v>907</v>
+        <v>338</v>
       </c>
       <c r="B34" s="1">
         <v>358</v>
@@ -1207,7 +1207,7 @@
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <f t="shared" ca="1" si="5"/>
-        <v>999</v>
+        <v>656</v>
       </c>
       <c r="B35" s="1">
         <v>374</v>
@@ -1216,7 +1216,7 @@
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <f t="shared" ca="1" si="5"/>
-        <v>817</v>
+        <v>245</v>
       </c>
       <c r="B36" s="1">
         <v>382</v>
@@ -1225,7 +1225,7 @@
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <f t="shared" ca="1" si="5"/>
-        <v>506</v>
+        <v>889</v>
       </c>
       <c r="B37" s="1">
         <v>388</v>
@@ -1234,7 +1234,7 @@
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <f t="shared" ca="1" si="5"/>
-        <v>821</v>
+        <v>777</v>
       </c>
       <c r="B38" s="1">
         <v>388</v>
@@ -1243,7 +1243,7 @@
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <f t="shared" ca="1" si="5"/>
-        <v>308</v>
+        <v>480</v>
       </c>
       <c r="B39" s="1">
         <v>389</v>
@@ -1252,7 +1252,7 @@
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <f t="shared" ca="1" si="5"/>
-        <v>858</v>
+        <v>213</v>
       </c>
       <c r="B40" s="1">
         <v>393</v>
@@ -1261,7 +1261,7 @@
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <f t="shared" ca="1" si="5"/>
-        <v>838</v>
+        <v>787</v>
       </c>
       <c r="B41" s="1">
         <v>396</v>
@@ -1270,7 +1270,7 @@
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>495</v>
       </c>
       <c r="B42" s="1">
         <v>413</v>
@@ -1279,7 +1279,7 @@
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <f t="shared" ca="1" si="5"/>
-        <v>737</v>
+        <v>975</v>
       </c>
       <c r="B43" s="1">
         <v>419</v>
@@ -1288,7 +1288,7 @@
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B44" s="1">
         <v>438</v>
@@ -1297,7 +1297,7 @@
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <f t="shared" ca="1" si="5"/>
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="B45" s="1">
         <v>447</v>
@@ -1306,7 +1306,7 @@
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <f t="shared" ca="1" si="5"/>
-        <v>231</v>
+        <v>365</v>
       </c>
       <c r="B46" s="1">
         <v>465</v>
@@ -1315,7 +1315,7 @@
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <f t="shared" ca="1" si="5"/>
-        <v>187</v>
+        <v>580</v>
       </c>
       <c r="B47" s="1">
         <v>466</v>
@@ -1324,7 +1324,7 @@
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <f t="shared" ca="1" si="5"/>
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="B48" s="1">
         <v>476</v>
@@ -1333,7 +1333,7 @@
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <f t="shared" ca="1" si="5"/>
-        <v>374</v>
+        <v>756</v>
       </c>
       <c r="B49" s="1">
         <v>485</v>
@@ -1342,7 +1342,7 @@
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <f t="shared" ca="1" si="5"/>
-        <v>132</v>
+        <v>988</v>
       </c>
       <c r="B50" s="1">
         <v>490</v>
@@ -1351,7 +1351,7 @@
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <f t="shared" ca="1" si="5"/>
-        <v>270</v>
+        <v>950</v>
       </c>
       <c r="B51" s="1">
         <v>494</v>
@@ -1360,7 +1360,7 @@
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <f t="shared" ca="1" si="5"/>
-        <v>624</v>
+        <v>382</v>
       </c>
       <c r="B52" s="1">
         <v>495</v>
@@ -1369,7 +1369,7 @@
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <f t="shared" ca="1" si="5"/>
-        <v>358</v>
+        <v>379</v>
       </c>
       <c r="B53" s="1">
         <v>507</v>
@@ -1378,7 +1378,7 @@
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <f t="shared" ca="1" si="5"/>
-        <v>673</v>
+        <v>751</v>
       </c>
       <c r="B54" s="1">
         <v>538</v>
@@ -1387,7 +1387,7 @@
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <f t="shared" ca="1" si="5"/>
-        <v>825</v>
+        <v>580</v>
       </c>
       <c r="B55" s="1">
         <v>551</v>
@@ -1396,7 +1396,7 @@
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <f t="shared" ca="1" si="5"/>
-        <v>742</v>
+        <v>356</v>
       </c>
       <c r="B56" s="1">
         <v>555</v>
@@ -1405,7 +1405,7 @@
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <f t="shared" ca="1" si="5"/>
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="B57" s="1">
         <v>561</v>
@@ -1414,7 +1414,7 @@
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <f t="shared" ca="1" si="5"/>
-        <v>967</v>
+        <v>976</v>
       </c>
       <c r="B58" s="1">
         <v>590</v>
@@ -1423,7 +1423,7 @@
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <f t="shared" ca="1" si="5"/>
-        <v>656</v>
+        <v>116</v>
       </c>
       <c r="B59" s="1">
         <v>603</v>
@@ -1432,7 +1432,7 @@
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <f t="shared" ca="1" si="5"/>
-        <v>599</v>
+        <v>119</v>
       </c>
       <c r="B60" s="1">
         <v>607</v>
@@ -1441,7 +1441,7 @@
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <f t="shared" ca="1" si="5"/>
-        <v>531</v>
+        <v>317</v>
       </c>
       <c r="B61" s="1">
         <v>640</v>
@@ -1450,7 +1450,7 @@
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <f t="shared" ca="1" si="5"/>
-        <v>129</v>
+        <v>663</v>
       </c>
       <c r="B62" s="1">
         <v>642</v>
@@ -1459,7 +1459,7 @@
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <f t="shared" ca="1" si="5"/>
-        <v>481</v>
+        <v>191</v>
       </c>
       <c r="B63" s="1">
         <v>671</v>
@@ -1468,7 +1468,7 @@
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <f t="shared" ca="1" si="5"/>
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="B64" s="1">
         <v>674</v>
@@ -1477,7 +1477,7 @@
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <f t="shared" ca="1" si="5"/>
-        <v>482</v>
+        <v>287</v>
       </c>
       <c r="B65" s="1">
         <v>696</v>
@@ -1486,7 +1486,7 @@
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
         <f t="shared" ca="1" si="5"/>
-        <v>139</v>
+        <v>300</v>
       </c>
       <c r="B66" s="1">
         <v>710</v>
@@ -1495,7 +1495,7 @@
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
         <f t="shared" ref="A67:A101" ca="1" si="8">RANDBETWEEN(10,1000)</f>
-        <v>421</v>
+        <v>25</v>
       </c>
       <c r="B67" s="1">
         <v>719</v>
@@ -1504,7 +1504,7 @@
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
         <f t="shared" ca="1" si="8"/>
-        <v>896</v>
+        <v>329</v>
       </c>
       <c r="B68" s="1">
         <v>747</v>
@@ -1513,7 +1513,7 @@
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <f t="shared" ca="1" si="8"/>
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="B69" s="1">
         <v>761</v>
@@ -1522,7 +1522,7 @@
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <f t="shared" ca="1" si="8"/>
-        <v>937</v>
+        <v>495</v>
       </c>
       <c r="B70" s="1">
         <v>773</v>
@@ -1531,7 +1531,7 @@
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <f t="shared" ca="1" si="8"/>
-        <v>83</v>
+        <v>707</v>
       </c>
       <c r="B71" s="1">
         <v>780</v>
@@ -1540,7 +1540,7 @@
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <f t="shared" ca="1" si="8"/>
-        <v>582</v>
+        <v>516</v>
       </c>
       <c r="B72" s="1">
         <v>785</v>
@@ -1549,7 +1549,7 @@
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <f t="shared" ca="1" si="8"/>
-        <v>635</v>
+        <v>756</v>
       </c>
       <c r="B73" s="1">
         <v>788</v>
@@ -1558,7 +1558,7 @@
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <f t="shared" ca="1" si="8"/>
-        <v>714</v>
+        <v>387</v>
       </c>
       <c r="B74" s="1">
         <v>801</v>
@@ -1567,7 +1567,7 @@
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <f t="shared" ca="1" si="8"/>
-        <v>760</v>
+        <v>394</v>
       </c>
       <c r="B75" s="1">
         <v>808</v>
@@ -1576,7 +1576,7 @@
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <f t="shared" ca="1" si="8"/>
-        <v>323</v>
+        <v>847</v>
       </c>
       <c r="B76" s="1">
         <v>809</v>
@@ -1585,7 +1585,7 @@
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <f t="shared" ca="1" si="8"/>
-        <v>432</v>
+        <v>524</v>
       </c>
       <c r="B77" s="1">
         <v>823</v>
@@ -1594,7 +1594,7 @@
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
         <f t="shared" ca="1" si="8"/>
-        <v>104</v>
+        <v>226</v>
       </c>
       <c r="B78" s="1">
         <v>825</v>
@@ -1603,7 +1603,7 @@
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
         <f t="shared" ca="1" si="8"/>
-        <v>326</v>
+        <v>472</v>
       </c>
       <c r="B79" s="1">
         <v>830</v>
@@ -1612,7 +1612,7 @@
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
         <f t="shared" ca="1" si="8"/>
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="B80" s="1">
         <v>849</v>
@@ -1621,7 +1621,7 @@
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <f t="shared" ca="1" si="8"/>
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="B81" s="1">
         <v>859</v>
@@ -1630,7 +1630,7 @@
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <f t="shared" ca="1" si="8"/>
-        <v>489</v>
+        <v>329</v>
       </c>
       <c r="B82" s="1">
         <v>869</v>
@@ -1639,7 +1639,7 @@
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
         <f t="shared" ca="1" si="8"/>
-        <v>285</v>
+        <v>96</v>
       </c>
       <c r="B83" s="1">
         <v>873</v>
@@ -1648,7 +1648,7 @@
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <f t="shared" ca="1" si="8"/>
-        <v>919</v>
+        <v>953</v>
       </c>
       <c r="B84" s="1">
         <v>878</v>
@@ -1657,7 +1657,7 @@
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <f t="shared" ca="1" si="8"/>
-        <v>355</v>
+        <v>989</v>
       </c>
       <c r="B85" s="1">
         <v>879</v>
@@ -1666,7 +1666,7 @@
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <f t="shared" ca="1" si="8"/>
-        <v>464</v>
+        <v>512</v>
       </c>
       <c r="B86" s="1">
         <v>893</v>
@@ -1675,7 +1675,7 @@
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <f t="shared" ca="1" si="8"/>
-        <v>197</v>
+        <v>10</v>
       </c>
       <c r="B87" s="1">
         <v>905</v>
@@ -1684,7 +1684,7 @@
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
         <f t="shared" ca="1" si="8"/>
-        <v>99</v>
+        <v>206</v>
       </c>
       <c r="B88" s="1">
         <v>915</v>
@@ -1693,7 +1693,7 @@
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
         <f t="shared" ca="1" si="8"/>
-        <v>395</v>
+        <v>525</v>
       </c>
       <c r="B89" s="1">
         <v>916</v>
@@ -1702,7 +1702,7 @@
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
         <f t="shared" ca="1" si="8"/>
-        <v>415</v>
+        <v>633</v>
       </c>
       <c r="B90" s="1">
         <v>919</v>
@@ -1711,7 +1711,7 @@
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
         <f t="shared" ca="1" si="8"/>
-        <v>613</v>
+        <v>443</v>
       </c>
       <c r="B91" s="1">
         <v>931</v>
@@ -1720,7 +1720,7 @@
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
         <f t="shared" ca="1" si="8"/>
-        <v>301</v>
+        <v>828</v>
       </c>
       <c r="B92" s="1">
         <v>936</v>
@@ -1729,7 +1729,7 @@
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
         <f t="shared" ca="1" si="8"/>
-        <v>259</v>
+        <v>191</v>
       </c>
       <c r="B93" s="1">
         <v>959</v>
@@ -1738,7 +1738,7 @@
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
         <f t="shared" ca="1" si="8"/>
-        <v>656</v>
+        <v>962</v>
       </c>
       <c r="B94" s="1">
         <v>964</v>
@@ -1747,7 +1747,7 @@
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
         <f t="shared" ca="1" si="8"/>
-        <v>26</v>
+        <v>794</v>
       </c>
       <c r="B95" s="1">
         <v>970</v>
@@ -1756,7 +1756,7 @@
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
         <f t="shared" ca="1" si="8"/>
-        <v>151</v>
+        <v>890</v>
       </c>
       <c r="B96" s="1">
         <v>980</v>
@@ -1765,7 +1765,7 @@
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
         <f t="shared" ca="1" si="8"/>
-        <v>460</v>
+        <v>164</v>
       </c>
       <c r="B97" s="1">
         <v>982</v>
@@ -1774,7 +1774,7 @@
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
         <f t="shared" ca="1" si="8"/>
-        <v>608</v>
+        <v>855</v>
       </c>
       <c r="B98" s="1">
         <v>988</v>
@@ -1783,7 +1783,7 @@
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
         <f t="shared" ca="1" si="8"/>
-        <v>975</v>
+        <v>374</v>
       </c>
       <c r="B99" s="1">
         <v>997</v>
@@ -1792,7 +1792,7 @@
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
         <f t="shared" ca="1" si="8"/>
-        <v>714</v>
+        <v>563</v>
       </c>
       <c r="B100" s="1">
         <v>998</v>
@@ -1801,7 +1801,7 @@
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
         <f t="shared" ca="1" si="8"/>
-        <v>565</v>
+        <v>592</v>
       </c>
       <c r="B101" s="1">
         <v>1000</v>
